--- a/Visualization/Raspbian.xlsx
+++ b/Visualization/Raspbian.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\即時系統\RTOS-teamproject\Visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\RTOS-teamproject\Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4829FB7D-D1D0-4107-9CC3-B2AC87EB2C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="4128" windowWidth="17280" windowHeight="8964" xr2:uid="{0E8740EA-077B-4FED-B6A7-0ED62E2984A1}"/>
+    <workbookView xWindow="10140" yWindow="4128" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,22 +32,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TCST(us)</t>
+    <t>IL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TPT(us)</t>
+    <t>TCST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IL(ns)</t>
+    <t>TPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -405,24 +404,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A691CE75-EF33-49A2-A480-E749CDFC8107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,5 +1527,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>